--- a/ECUS/New Hoja de cálculo de Microsoft Excel.xlsx
+++ b/ECUS/New Hoja de cálculo de Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Especificación de Caso de Uso: Registrar Solicitud</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>3.2 Subflujos:</t>
+  </si>
+  <si>
+    <t>Administrado/Solicitante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El caso de uso Registrar Solicitud permite al administrado o solicitante ingresar sus datos y detallar informacíon del caso como el motivo, ubicación del area, </t>
   </si>
 </sst>
 </file>
@@ -60,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -121,23 +133,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +451,7 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,68 +461,77 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="2:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
